--- a/data/trans_orig/P6701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>15602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9501</v>
+        <v>9558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24935</v>
+        <v>24879</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08524711304825279</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05191431396263121</v>
+        <v>0.05222570447980818</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1362445586987157</v>
+        <v>0.1359356841585537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -764,19 +764,19 @@
         <v>30221</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20265</v>
+        <v>20788</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40948</v>
+        <v>41005</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2203683450468975</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1477715851193603</v>
+        <v>0.1515799329804626</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2985851452746736</v>
+        <v>0.2990023454154947</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -785,19 +785,19 @@
         <v>45823</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33576</v>
+        <v>33472</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60536</v>
+        <v>59993</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1431262458523284</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1048745743316823</v>
+        <v>0.1045472067993644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1890817943746091</v>
+        <v>0.1873868527411438</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>18741</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11767</v>
+        <v>11452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28757</v>
+        <v>27984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1023992737440855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06429371662783503</v>
+        <v>0.06257422935928515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1571272561944784</v>
+        <v>0.15290087691472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -835,19 +835,19 @@
         <v>18878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11477</v>
+        <v>12475</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>28322</v>
+        <v>28505</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1376588152523003</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08368905169144747</v>
+        <v>0.0909650380131537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2065172538697088</v>
+        <v>0.2078511741527484</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -856,19 +856,19 @@
         <v>37619</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27415</v>
+        <v>27075</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50524</v>
+        <v>49266</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1175026861048109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08563061541292107</v>
+        <v>0.08456722028636419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.15780912269787</v>
+        <v>0.1538797481645915</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>80990</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68212</v>
+        <v>67989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94097</v>
+        <v>95222</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4425237592725323</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3727042764068471</v>
+        <v>0.371490750115156</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5141421832165172</v>
+        <v>0.5202885037495073</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -906,19 +906,19 @@
         <v>42975</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31631</v>
+        <v>32468</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54956</v>
+        <v>54829</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3133709302520222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2306505577440581</v>
+        <v>0.2367538908848225</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.400733530959919</v>
+        <v>0.3998095958878047</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>118</v>
@@ -927,19 +927,19 @@
         <v>123966</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106617</v>
+        <v>103745</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140215</v>
+        <v>140678</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3872011898115378</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3330128260709618</v>
+        <v>0.3240443427934017</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4379561711364984</v>
+        <v>0.4394015653050753</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>38882</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27650</v>
+        <v>28284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50202</v>
+        <v>51353</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2124510137506006</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1510786031582255</v>
+        <v>0.1545426366815281</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2743010950377019</v>
+        <v>0.2805911472342373</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -977,19 +977,19 @@
         <v>19242</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11560</v>
+        <v>11699</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29269</v>
+        <v>29325</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1403119061465253</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08429219945344292</v>
+        <v>0.08530951902450044</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2134271660552491</v>
+        <v>0.2138354236174748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -998,19 +998,19 @@
         <v>58125</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43920</v>
+        <v>44679</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73291</v>
+        <v>73477</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1815502520596055</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1371837017660957</v>
+        <v>0.139553174201489</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.228921535396654</v>
+        <v>0.2295017535204469</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>28803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19693</v>
+        <v>20202</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38855</v>
+        <v>39406</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1573788401845288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1076032700669411</v>
+        <v>0.1103827244118718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2123027863351517</v>
+        <v>0.2153105466732655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1048,19 +1048,19 @@
         <v>25822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>16209</v>
+        <v>17482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>35896</v>
+        <v>35978</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1882900033022547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1181947088906019</v>
+        <v>0.1274788585664843</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2617457763733524</v>
+        <v>0.2623470640945932</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>52</v>
@@ -1069,19 +1069,19 @@
         <v>54625</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42069</v>
+        <v>42201</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69387</v>
+        <v>69611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1706196261717173</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.131401892646925</v>
+        <v>0.1318129051867697</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2167282720250645</v>
+        <v>0.2174283681642539</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>76587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60424</v>
+        <v>60267</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96824</v>
+        <v>95644</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08374643298946613</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06607286041284231</v>
+        <v>0.06590095042867114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1058753693871697</v>
+        <v>0.1045850105615607</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1194,19 +1194,19 @@
         <v>55602</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42365</v>
+        <v>42291</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72141</v>
+        <v>71011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09706383676819307</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07395622315913092</v>
+        <v>0.07382811876816835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1259357788473367</v>
+        <v>0.1239640027572949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -1215,19 +1215,19 @@
         <v>132189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111489</v>
+        <v>111301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156084</v>
+        <v>155824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08887550442110051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07495834265314737</v>
+        <v>0.07483177966266882</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1049413273602746</v>
+        <v>0.1047666108175143</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>93386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74355</v>
+        <v>74139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>114013</v>
+        <v>113411</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1021163604963573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08130594507453308</v>
+        <v>0.08106964515318169</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1246716287477556</v>
+        <v>0.1240130287446098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1265,19 +1265,19 @@
         <v>54454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40305</v>
+        <v>40948</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70275</v>
+        <v>69118</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09506098653484173</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07036071396375766</v>
+        <v>0.07148278860141177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1226787952643743</v>
+        <v>0.1206595836443465</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -1286,19 +1286,19 @@
         <v>147841</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>125756</v>
+        <v>125976</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>172899</v>
+        <v>172453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09939905030386224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08455095927452172</v>
+        <v>0.08469880082477439</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1162467801721856</v>
+        <v>0.1159466121576854</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>326382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>298081</v>
+        <v>298163</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>359095</v>
+        <v>356077</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3568937417845791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3259469385534619</v>
+        <v>0.3260363740650036</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3926644363223569</v>
+        <v>0.3893646397322271</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>176</v>
@@ -1336,19 +1336,19 @@
         <v>186921</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>166797</v>
+        <v>163624</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>210341</v>
+        <v>209973</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3263080583864123</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2911778856900549</v>
+        <v>0.2856379074699589</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3671923557328786</v>
+        <v>0.3665489275158062</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>489</v>
@@ -1357,19 +1357,19 @@
         <v>513304</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>478227</v>
+        <v>474694</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>552837</v>
+        <v>550598</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3451139566597078</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3215304937764473</v>
+        <v>0.3191554302465853</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3716935533120486</v>
+        <v>0.3701884242378491</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>226980</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>200951</v>
+        <v>202210</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255837</v>
+        <v>255195</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2481985835560842</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2197368600217215</v>
+        <v>0.2211131174154627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2797534631136168</v>
+        <v>0.2790511461996492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1407,19 +1407,19 @@
         <v>149898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>129342</v>
+        <v>131444</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>172527</v>
+        <v>173506</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2616768321670603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2257924828247859</v>
+        <v>0.2294614998798156</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3011797743888288</v>
+        <v>0.3028884038735483</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>355</v>
@@ -1428,19 +1428,19 @@
         <v>376878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>345554</v>
+        <v>341833</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>413150</v>
+        <v>411020</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2533896028454033</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2323295109409705</v>
+        <v>0.2298278189039459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2777770806968539</v>
+        <v>0.2763447274073982</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>191173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>167782</v>
+        <v>168050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>217811</v>
+        <v>218692</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2090448811735133</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1834673172602302</v>
+        <v>0.1837600135506014</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2381732975767883</v>
+        <v>0.2391361487966213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>117</v>
@@ -1478,19 +1478,19 @@
         <v>125961</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106468</v>
+        <v>107416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145991</v>
+        <v>147306</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2198902861434926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.185860141073441</v>
+        <v>0.1875163928827413</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2548555991752604</v>
+        <v>0.2571514019851593</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>300</v>
@@ -1499,19 +1499,19 @@
         <v>317135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>285241</v>
+        <v>286529</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>348951</v>
+        <v>350409</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.213221885769926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1917784331983158</v>
+        <v>0.1926448482980301</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.234613566552843</v>
+        <v>0.2355935071297585</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>34191</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>24222</v>
+        <v>23640</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47500</v>
+        <v>48437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1081105250370491</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07658820166198631</v>
+        <v>0.07475039762914919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1501931446775579</v>
+        <v>0.1531560140402945</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1624,19 +1624,19 @@
         <v>28772</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19350</v>
+        <v>19665</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40829</v>
+        <v>42610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1224882393024554</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08237653881744184</v>
+        <v>0.08371955642485487</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1738149594220507</v>
+        <v>0.1813995389141938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>57</v>
@@ -1645,19 +1645,19 @@
         <v>62963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47006</v>
+        <v>48056</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78908</v>
+        <v>79713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1142381756938678</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08528629311861161</v>
+        <v>0.08719184084333596</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1431686666576103</v>
+        <v>0.144628490015923</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>40039</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30029</v>
+        <v>29320</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54272</v>
+        <v>56337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1266026131173038</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09495281478640528</v>
+        <v>0.09271077252704329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1716064380618599</v>
+        <v>0.1781352878562113</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -1695,19 +1695,19 @@
         <v>33234</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23830</v>
+        <v>22844</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45606</v>
+        <v>45978</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1414845290887357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.101449628584409</v>
+        <v>0.09725093250977915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1941540330443553</v>
+        <v>0.1957386174443568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -1716,19 +1716,19 @@
         <v>73273</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>57552</v>
+        <v>57532</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93523</v>
+        <v>93565</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1329451499415664</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1044206204327007</v>
+        <v>0.1043842399655268</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1696850809441851</v>
+        <v>0.169761929634951</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>123742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105225</v>
+        <v>105451</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>142934</v>
+        <v>141692</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.391270574432339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3327207793491925</v>
+        <v>0.3334341054740135</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4519553648096124</v>
+        <v>0.4480292468640459</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>82</v>
@@ -1766,19 +1766,19 @@
         <v>93739</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80062</v>
+        <v>78068</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>111105</v>
+        <v>109491</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3990640769113542</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3408373930855116</v>
+        <v>0.3323483590882702</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4729956668024735</v>
+        <v>0.4661252945113952</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -1787,19 +1787,19 @@
         <v>217481</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>192121</v>
+        <v>194144</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>244184</v>
+        <v>242928</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3945920940913685</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3485792740093321</v>
+        <v>0.3522495817704478</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4430406279969188</v>
+        <v>0.4407625251843698</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>72477</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56130</v>
+        <v>58159</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87156</v>
+        <v>88705</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2291720407693568</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1774822449658099</v>
+        <v>0.183898842935423</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2755852509634727</v>
+        <v>0.2804850617491078</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1837,19 +1837,19 @@
         <v>37238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25920</v>
+        <v>26799</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51130</v>
+        <v>50516</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1585285885529838</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1103483570435334</v>
+        <v>0.1140884069804814</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2176716983109282</v>
+        <v>0.2150566245436004</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -1858,19 +1858,19 @@
         <v>109715</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91805</v>
+        <v>89941</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130497</v>
+        <v>128505</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.199064445891419</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1665682091273175</v>
+        <v>0.1631872249269359</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.236771106035758</v>
+        <v>0.2331565294428775</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>45808</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33507</v>
+        <v>33926</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59862</v>
+        <v>62048</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1448442466439513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1059479016772492</v>
+        <v>0.1072748750620781</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1892825716835429</v>
+        <v>0.1961959125848769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -1908,19 +1908,19 @@
         <v>41914</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30371</v>
+        <v>30593</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55498</v>
+        <v>53952</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.178434566144471</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1292947266739005</v>
+        <v>0.1302417897585084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2362632606093991</v>
+        <v>0.2296850936383217</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -1929,19 +1929,19 @@
         <v>87722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70323</v>
+        <v>71971</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>106347</v>
+        <v>107619</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1591601343817783</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1275922619507265</v>
+        <v>0.1305831573589764</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.192953791462622</v>
+        <v>0.1952608178693136</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>126379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>104987</v>
+        <v>104396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>151031</v>
+        <v>151035</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08939084088207525</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07425938590301438</v>
+        <v>0.07384120209407785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1068274842399487</v>
+        <v>0.106830370692901</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -2054,19 +2054,19 @@
         <v>114595</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96084</v>
+        <v>94889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>138408</v>
+        <v>136641</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1212808654667413</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1016896883250059</v>
+        <v>0.100425159951265</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1464826552026798</v>
+        <v>0.1446127859408449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>219</v>
@@ -2075,19 +2075,19 @@
         <v>240974</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>209103</v>
+        <v>211542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>273917</v>
+        <v>274189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1021659192037428</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08865340419543059</v>
+        <v>0.08968730148368319</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1161326578254707</v>
+        <v>0.1162480924675569</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>152166</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>129525</v>
+        <v>127912</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>176843</v>
+        <v>179039</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1076304518963284</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09161593588061133</v>
+        <v>0.09047512488412718</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1250849585231374</v>
+        <v>0.1266381552218541</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -2125,19 +2125,19 @@
         <v>106567</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>87560</v>
+        <v>88256</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>127793</v>
+        <v>129495</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1127846200330967</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09266806828558624</v>
+        <v>0.09340480983016582</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1352483410868086</v>
+        <v>0.1370500744432252</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>239</v>
@@ -2146,19 +2146,19 @@
         <v>258733</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>230348</v>
+        <v>229748</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>291571</v>
+        <v>293322</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1096952010612419</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09766046622467203</v>
+        <v>0.09740622233295497</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1236174970277672</v>
+        <v>0.1243598203881382</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>531114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>491516</v>
+        <v>494044</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>567819</v>
+        <v>570910</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3756687310633736</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3476601640785759</v>
+        <v>0.3494479846731129</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4016307132064336</v>
+        <v>0.4038170126062616</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>299</v>
@@ -2196,19 +2196,19 @@
         <v>323636</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>292289</v>
+        <v>293676</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>355359</v>
+        <v>353092</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3425176096646019</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3093416661967854</v>
+        <v>0.3108101118305668</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3760918087880308</v>
+        <v>0.3736929222014022</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>800</v>
@@ -2217,19 +2217,19 @@
         <v>854750</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>806813</v>
+        <v>808362</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>906003</v>
+        <v>908154</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3623884599492505</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3420646611976424</v>
+        <v>0.3427213025207813</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3841181465823773</v>
+        <v>0.3850301521826803</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>338339</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>307485</v>
+        <v>308275</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>371253</v>
+        <v>377994</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2393148075709967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2174907166415427</v>
+        <v>0.2180495735585358</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2625951012101629</v>
+        <v>0.2673634449465519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -2267,19 +2267,19 @@
         <v>206378</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>179473</v>
+        <v>180694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232779</v>
+        <v>231817</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2184190542772584</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1899436281968232</v>
+        <v>0.1912357663394604</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2463596291769692</v>
+        <v>0.2453420889741247</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>507</v>
@@ -2288,19 +2288,19 @@
         <v>544718</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>501671</v>
+        <v>505305</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>585856</v>
+        <v>588028</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2309440117376781</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2126934791876431</v>
+        <v>0.214234203455239</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2483852828186001</v>
+        <v>0.2493061747848455</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>265785</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>234837</v>
+        <v>236642</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>294797</v>
+        <v>296935</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.187995168587226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1661050980017487</v>
+        <v>0.1673821782440701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2085164840858643</v>
+        <v>0.2100287073267057</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>181</v>
@@ -2338,19 +2338,19 @@
         <v>193697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>169907</v>
+        <v>171492</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220613</v>
+        <v>221303</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2049978505583017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1798198162949807</v>
+        <v>0.1814976049374838</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2334842405201214</v>
+        <v>0.2342147830326189</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>434</v>
@@ -2359,19 +2359,19 @@
         <v>459481</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>422286</v>
+        <v>423593</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>498566</v>
+        <v>501137</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1948064080480867</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1790364797589692</v>
+        <v>0.1795908199685472</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2113771215875366</v>
+        <v>0.2124673028079161</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>8506</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4117</v>
+        <v>4026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15894</v>
+        <v>15912</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06019585338999418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02913401013128086</v>
+        <v>0.0284895788070527</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1124872149638799</v>
+        <v>0.1126144488179898</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2723,19 +2723,19 @@
         <v>8275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3795</v>
+        <v>3844</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14773</v>
+        <v>14821</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1197011475468271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05490095810381718</v>
+        <v>0.05560501901874182</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2137028636827865</v>
+        <v>0.2143929241445679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2744,19 +2744,19 @@
         <v>16780</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9350</v>
+        <v>10115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25664</v>
+        <v>26129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07974418756841357</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0444321483904779</v>
+        <v>0.04806836114445941</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1219592572142708</v>
+        <v>0.1241730256416846</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>9448</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5054</v>
+        <v>4939</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17464</v>
+        <v>16150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06686284030032924</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03577040251071541</v>
+        <v>0.0349561644651329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1235935819084141</v>
+        <v>0.1142944288704179</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -2794,19 +2794,19 @@
         <v>7708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3086</v>
+        <v>3707</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13078</v>
+        <v>14044</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1114967967574415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04463486045529779</v>
+        <v>0.05361958529737092</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.189191395417372</v>
+        <v>0.2031587092469167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -2815,19 +2815,19 @@
         <v>17155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10394</v>
+        <v>10900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25140</v>
+        <v>26916</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08152572885322044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04939614196893692</v>
+        <v>0.05179711325493886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1194713968846364</v>
+        <v>0.1279131123093303</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>55832</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44020</v>
+        <v>44110</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68585</v>
+        <v>68207</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3951368650565022</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3115371237124669</v>
+        <v>0.3121719230726281</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4853904571029414</v>
+        <v>0.4827139939413947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>26</v>
@@ -2865,19 +2865,19 @@
         <v>25750</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18963</v>
+        <v>18044</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34556</v>
+        <v>33945</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3724973003748045</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2743220602712342</v>
+        <v>0.2610195819892115</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4998908283217831</v>
+        <v>0.4910423219176266</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -2886,19 +2886,19 @@
         <v>81582</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>69669</v>
+        <v>66050</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98691</v>
+        <v>95000</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3876994465490777</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3310852096362181</v>
+        <v>0.3138869815052208</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4690041636512199</v>
+        <v>0.4514618276226983</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>38221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28216</v>
+        <v>28030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49636</v>
+        <v>50147</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2704983049384754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1996865866933853</v>
+        <v>0.1983716832062608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3512821453943567</v>
+        <v>0.3549012103128587</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2936,19 +2936,19 @@
         <v>10899</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5043</v>
+        <v>6073</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17377</v>
+        <v>18082</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1576590941143525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07295746776831871</v>
+        <v>0.08784701583526595</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2513809839030922</v>
+        <v>0.261566071371025</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -2957,19 +2957,19 @@
         <v>49120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37791</v>
+        <v>38123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62075</v>
+        <v>61184</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.233429021728054</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.179589853213265</v>
+        <v>0.181171251934602</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2949955472319145</v>
+        <v>0.2907618798319569</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>29292</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20457</v>
+        <v>19391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39870</v>
+        <v>39605</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.207306136314699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1447774308978767</v>
+        <v>0.1372370533843404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.282169342657656</v>
+        <v>0.2802932531914605</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3007,19 +3007,19 @@
         <v>16497</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9921</v>
+        <v>10373</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24025</v>
+        <v>24571</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2386456612065744</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1435107575481228</v>
+        <v>0.1500520380123092</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.347550253901826</v>
+        <v>0.3554367238342024</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -3028,19 +3028,19 @@
         <v>45789</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>34328</v>
+        <v>34866</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>59125</v>
+        <v>61647</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2176016153012343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1631326104233502</v>
+        <v>0.165690861455532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2809758751042036</v>
+        <v>0.2929615540727212</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>60097</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45735</v>
+        <v>43667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77914</v>
+        <v>76013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06509655122284455</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04954000361368682</v>
+        <v>0.04730001775851422</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08439554436516235</v>
+        <v>0.08233673020128418</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -3153,19 +3153,19 @@
         <v>47935</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35419</v>
+        <v>35844</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62054</v>
+        <v>61611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07368477781047116</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05444576644521932</v>
+        <v>0.05509827281123784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09538832639041786</v>
+        <v>0.09470652363074614</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -3174,19 +3174,19 @@
         <v>108032</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89894</v>
+        <v>89168</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129881</v>
+        <v>129601</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06864669155187123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05712082504320663</v>
+        <v>0.05665986760828414</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08252971478843735</v>
+        <v>0.082351985384868</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>98355</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79610</v>
+        <v>81426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117205</v>
+        <v>120044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1065366524600235</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08623280591206477</v>
+        <v>0.08819968552621325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1269555225587006</v>
+        <v>0.1300307096959091</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -3224,19 +3224,19 @@
         <v>76118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61056</v>
+        <v>60718</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>95802</v>
+        <v>93631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1170071389534146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09385318157460765</v>
+        <v>0.09333464717933507</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1472647088924897</v>
+        <v>0.1439279966767904</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>168</v>
@@ -3245,19 +3245,19 @@
         <v>174473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>150945</v>
+        <v>148902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>199183</v>
+        <v>203065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1108648680683857</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09591435774187168</v>
+        <v>0.0946165855935277</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1265660657669592</v>
+        <v>0.1290327876454626</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>304222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>275400</v>
+        <v>272855</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>336087</v>
+        <v>331808</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3295296087421474</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2983101768166088</v>
+        <v>0.2955532885777312</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.364044995349937</v>
+        <v>0.3594105598651395</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>246</v>
@@ -3295,19 +3295,19 @@
         <v>249534</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>222697</v>
+        <v>224657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>274413</v>
+        <v>273029</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3835779016350978</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3423247310432906</v>
+        <v>0.3453374801550205</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4218213254322564</v>
+        <v>0.4196946524889247</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>532</v>
@@ -3316,19 +3316,19 @@
         <v>553756</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>516092</v>
+        <v>517568</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>589228</v>
+        <v>592148</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3518717095654718</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3279387257153671</v>
+        <v>0.3288767042667546</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3744111384081319</v>
+        <v>0.3762668220630476</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>284521</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>256811</v>
+        <v>257657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>314161</v>
+        <v>313063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3081896738965049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2781746824051408</v>
+        <v>0.2790907632125145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3402949197341537</v>
+        <v>0.3391058503355921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>160</v>
@@ -3366,19 +3366,19 @@
         <v>163686</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142121</v>
+        <v>142278</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>188373</v>
+        <v>185772</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.251614045906374</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2184646894250437</v>
+        <v>0.2187072240899337</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.289563256860416</v>
+        <v>0.2855645572609643</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>430</v>
@@ -3387,19 +3387,19 @@
         <v>448207</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>413844</v>
+        <v>412419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>483670</v>
+        <v>482427</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2848028411763309</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2629677789087167</v>
+        <v>0.2620621382389597</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3073370540525699</v>
+        <v>0.3065469695117006</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>176006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152347</v>
+        <v>152032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>202159</v>
+        <v>201367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1906475136784797</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1650206943971675</v>
+        <v>0.1646797205346668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2189765107539417</v>
+        <v>0.2181184623730915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -3437,19 +3437,19 @@
         <v>113270</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93867</v>
+        <v>95838</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>135266</v>
+        <v>133708</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1741161356946424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1442897722805774</v>
+        <v>0.1473196971830466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2079273128138908</v>
+        <v>0.2055322085502485</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>267</v>
@@ -3458,19 +3458,19 @@
         <v>289276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>256595</v>
+        <v>257111</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323549</v>
+        <v>323038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1838138896379403</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1630471616660556</v>
+        <v>0.1633753084752514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2055917309098843</v>
+        <v>0.2052667732244122</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>28126</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18635</v>
+        <v>18093</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39307</v>
+        <v>39373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08071991605578918</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05348056139352053</v>
+        <v>0.05192570640481707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1128093300900973</v>
+        <v>0.1129978650382888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -3583,19 +3583,19 @@
         <v>28053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19279</v>
+        <v>18680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39718</v>
+        <v>40199</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09094745491763975</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06250127945846881</v>
+        <v>0.06056129183330678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1287646470883589</v>
+        <v>0.1303261618626805</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3604,19 +3604,19 @@
         <v>56179</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43618</v>
+        <v>42032</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72724</v>
+        <v>71959</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0855224110924806</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06640018179140621</v>
+        <v>0.06398636974065569</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1107098612823028</v>
+        <v>0.1095453321776827</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>59605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>46007</v>
+        <v>46382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74460</v>
+        <v>75806</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1710625131001806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1320367975234941</v>
+        <v>0.1331154111151199</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2136959064131732</v>
+        <v>0.217559736952966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -3654,19 +3654,19 @@
         <v>50358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38141</v>
+        <v>39008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66119</v>
+        <v>64554</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1632583999241045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1236527574329661</v>
+        <v>0.1264628211618436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2143566730335516</v>
+        <v>0.2092840149754277</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -3675,19 +3675,19 @@
         <v>109962</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>91528</v>
+        <v>92377</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131510</v>
+        <v>132337</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1673979741235864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1393354316393392</v>
+        <v>0.140627305853561</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2002002593376252</v>
+        <v>0.2014590145801656</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>141920</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>122162</v>
+        <v>123506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>161252</v>
+        <v>161978</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.407303087372291</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.350600279106383</v>
+        <v>0.3544568919103823</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4627860589465333</v>
+        <v>0.4648697856607843</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>111</v>
@@ -3725,19 +3725,19 @@
         <v>113767</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>96378</v>
+        <v>97566</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131415</v>
+        <v>132164</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.36883155741178</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3124558904893493</v>
+        <v>0.3163064920333943</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4260460275764647</v>
+        <v>0.4284722838749744</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>242</v>
@@ -3746,19 +3746,19 @@
         <v>255687</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>229308</v>
+        <v>231077</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>281123</v>
+        <v>283209</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3892382005813501</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3490804555535973</v>
+        <v>0.3517730827925205</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4279592618941412</v>
+        <v>0.4311350095211868</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>68184</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>54866</v>
+        <v>53912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84842</v>
+        <v>85251</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1956846444794602</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1574628254855098</v>
+        <v>0.1547243839033601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2434911390577641</v>
+        <v>0.2446652200056125</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>59</v>
@@ -3796,19 +3796,19 @@
         <v>61414</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48787</v>
+        <v>45865</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77228</v>
+        <v>76491</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1991037759038038</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1581677014544549</v>
+        <v>0.1486946081936401</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2503704524672571</v>
+        <v>0.2479815578091811</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -3817,19 +3817,19 @@
         <v>129598</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>109995</v>
+        <v>110519</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151732</v>
+        <v>153164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1972901491778051</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1674485574653781</v>
+        <v>0.1682459368366781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2309854937732594</v>
+        <v>0.2331644453686884</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>50604</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38260</v>
+        <v>36693</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>66442</v>
+        <v>66199</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.145229838992279</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1098029074799314</v>
+        <v>0.1053072558561125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1906840144593448</v>
+        <v>0.1899887626735788</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -3867,19 +3867,19 @@
         <v>54861</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43237</v>
+        <v>41646</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68845</v>
+        <v>69892</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1778588118426719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1401731872040897</v>
+        <v>0.1350164657934279</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2231944729536076</v>
+        <v>0.2265886600006722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -3888,19 +3888,19 @@
         <v>105465</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>86138</v>
+        <v>87083</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>126392</v>
+        <v>125422</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1605512650247778</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1311299523604629</v>
+        <v>0.1325681525408957</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1924087722710583</v>
+        <v>0.190932973063476</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>96729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80037</v>
+        <v>79095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120438</v>
+        <v>118241</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0684592693515414</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05664554005075211</v>
+        <v>0.05597923739055843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08523914279660241</v>
+        <v>0.08368449134105112</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -4013,19 +4013,19 @@
         <v>84263</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66649</v>
+        <v>68935</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102831</v>
+        <v>103623</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08195785940867793</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06482532527723565</v>
+        <v>0.06704966417422867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1000175485300724</v>
+        <v>0.1007881411648697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -4034,19 +4034,19 @@
         <v>180992</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156163</v>
+        <v>156315</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>212082</v>
+        <v>208803</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07414459441060442</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06397349710338324</v>
+        <v>0.06403554219391198</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08688101400510692</v>
+        <v>0.08553762093150856</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>167407</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>143033</v>
+        <v>142649</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>193766</v>
+        <v>191806</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1184815528194492</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1012308009753951</v>
+        <v>0.100959304491735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1371369689395452</v>
+        <v>0.1357495604793858</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -4084,19 +4084,19 @@
         <v>134183</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>114103</v>
+        <v>114649</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>156026</v>
+        <v>157721</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.130512724924263</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1109820910406971</v>
+        <v>0.1115123017211789</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1517579090242228</v>
+        <v>0.1534063444165021</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>289</v>
@@ -4105,19 +4105,19 @@
         <v>301590</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>270467</v>
+        <v>265542</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>335194</v>
+        <v>333934</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1235488319921533</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1107989628581791</v>
+        <v>0.1087812098275885</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1373148787858667</v>
+        <v>0.1367983997688602</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>501974</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>465606</v>
+        <v>466328</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>542032</v>
+        <v>536771</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3552699222906978</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3295306878818847</v>
+        <v>0.3300412013833501</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3836206557262905</v>
+        <v>0.379897269967154</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>383</v>
@@ -4155,19 +4155,19 @@
         <v>389051</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>357870</v>
+        <v>357742</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>423651</v>
+        <v>420069</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3784087434771193</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3480800095700228</v>
+        <v>0.3479562088070132</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4120619801164286</v>
+        <v>0.4085780776149271</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>853</v>
@@ -4176,19 +4176,19 @@
         <v>891026</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>839332</v>
+        <v>846477</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>938598</v>
+        <v>942803</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3650155119686946</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.343838667769214</v>
+        <v>0.3467659125468248</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3845039051810988</v>
+        <v>0.3862265809385449</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>390926</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>359074</v>
+        <v>357272</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>427504</v>
+        <v>428285</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2766760619127892</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2541332241309983</v>
+        <v>0.2528574351045658</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3025641878617539</v>
+        <v>0.303116708886808</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>230</v>
@@ -4226,19 +4226,19 @@
         <v>235999</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>207715</v>
+        <v>210566</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>262199</v>
+        <v>265816</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2295428884138276</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2020323755999928</v>
+        <v>0.2048055180910368</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2550263033870284</v>
+        <v>0.2585445399095323</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>599</v>
@@ -4247,19 +4247,19 @@
         <v>626925</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>584127</v>
+        <v>587432</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>668395</v>
+        <v>670883</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2568245506606832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2392921500057822</v>
+        <v>0.2406458020375145</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2738129196469165</v>
+        <v>0.2748324705785236</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>255902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>226554</v>
+        <v>223464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>287327</v>
+        <v>286763</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1811131936255225</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1603425552977873</v>
+        <v>0.158155206212067</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2033542328573355</v>
+        <v>0.202955179838269</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>176</v>
@@ -4297,19 +4297,19 @@
         <v>184628</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>159980</v>
+        <v>158596</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>210564</v>
+        <v>208794</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1795777837761121</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1556035113884914</v>
+        <v>0.1542572392391578</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2048037912810217</v>
+        <v>0.203082760391135</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>406</v>
@@ -4318,19 +4318,19 @@
         <v>440530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>398656</v>
+        <v>403630</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>482346</v>
+        <v>480025</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1804665109678645</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1633125491935447</v>
+        <v>0.1653502539593104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1975966243308926</v>
+        <v>0.1966459342097956</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>4190</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1108</v>
+        <v>1081</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9421</v>
+        <v>10082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1025144022230361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02710004066090907</v>
+        <v>0.02645149385905559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2304860489434525</v>
+        <v>0.2466372093577009</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4682,19 +4682,19 @@
         <v>1859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5167</v>
+        <v>4710</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08225631653497684</v>
+        <v>0.08225631653497685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02289516595538413</v>
+        <v>0.02322877759446941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2286433349035843</v>
+        <v>0.2084191635860838</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4703,19 +4703,19 @@
         <v>6049</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2169</v>
+        <v>2573</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11349</v>
+        <v>12128</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09530181880523564</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03416588104574277</v>
+        <v>0.04053779650044508</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1787911824835053</v>
+        <v>0.1910717519621213</v>
       </c>
     </row>
     <row r="5">
@@ -4735,16 +4735,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4832</v>
+        <v>4865</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02017126881218349</v>
+        <v>0.0201712688121835</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1182008046709716</v>
+        <v>0.1190138027409604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -4753,19 +4753,19 @@
         <v>4631</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1790</v>
+        <v>1914</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8960</v>
+        <v>8876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2049296396754293</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0791876715281809</v>
+        <v>0.08470757975278372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3964451848363963</v>
+        <v>0.3927431140486608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -4774,19 +4774,19 @@
         <v>5456</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2459</v>
+        <v>1998</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11625</v>
+        <v>10779</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08595167780579088</v>
+        <v>0.08595167780579087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03874386991365805</v>
+        <v>0.03147049795184261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1831410062741741</v>
+        <v>0.1698128681384309</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>19333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11551</v>
+        <v>12296</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26876</v>
+        <v>27036</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4729721491497431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2825789112073093</v>
+        <v>0.3008114726385027</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6575001426005426</v>
+        <v>0.6614174288637628</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4824,19 +4824,19 @@
         <v>7963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4371</v>
+        <v>4200</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12346</v>
+        <v>12489</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3523231297891122</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1934110885450011</v>
+        <v>0.1858225397077753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5462872253854809</v>
+        <v>0.5526306564635585</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -4845,19 +4845,19 @@
         <v>27296</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18589</v>
+        <v>18951</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35919</v>
+        <v>35876</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4300169000796251</v>
+        <v>0.4300169000796252</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.292855060656117</v>
+        <v>0.298546749389199</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5658646019856234</v>
+        <v>0.5651916721280549</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>7286</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3214</v>
+        <v>3373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14006</v>
+        <v>13168</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1782354720258532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07862096512824247</v>
+        <v>0.08252118131499137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3426573879954857</v>
+        <v>0.3221423351988806</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4895,19 +4895,19 @@
         <v>4997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2148</v>
+        <v>2281</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9000</v>
+        <v>8945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2211249276772933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09502724479827529</v>
+        <v>0.100916952991598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3982116168085757</v>
+        <v>0.3957792252160408</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -4916,19 +4916,19 @@
         <v>12283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6990</v>
+        <v>7630</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18864</v>
+        <v>20310</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.193505610645733</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1101151414641499</v>
+        <v>0.1201999347468671</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2971865664479708</v>
+        <v>0.3199627714861348</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>9242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2600</v>
+        <v>2672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>20482</v>
+        <v>20368</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.226106707789184</v>
+        <v>0.2261067077891841</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0635968997194352</v>
+        <v>0.06535849811423038</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5010752344006336</v>
+        <v>0.4982888732569898</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -4966,19 +4966,19 @@
         <v>3150</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6972</v>
+        <v>6877</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.1393659863231882</v>
+        <v>0.1393659863231883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0381576933739783</v>
+        <v>0.03792421350152722</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3084786270558156</v>
+        <v>0.3043035984024214</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>8</v>
@@ -4987,19 +4987,19 @@
         <v>12392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5469</v>
+        <v>5217</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24626</v>
+        <v>23877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1952239926636154</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.086157387198629</v>
+        <v>0.08219632501109921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3879514737334886</v>
+        <v>0.3761631709505697</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>29742</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19779</v>
+        <v>19756</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42347</v>
+        <v>43456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.100716580919028</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06697845381979307</v>
+        <v>0.06690175067205832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.14340121970018</v>
+        <v>0.1471593045318636</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -5112,19 +5112,19 @@
         <v>23773</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16521</v>
+        <v>17332</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33289</v>
+        <v>32903</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09443891359162974</v>
+        <v>0.09443891359162972</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06562973223441007</v>
+        <v>0.06885202799021282</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1322448010993171</v>
+        <v>0.1307105332846634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -5133,19 +5133,19 @@
         <v>53515</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>40695</v>
+        <v>41375</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68392</v>
+        <v>67867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09782778493825932</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07439311395474514</v>
+        <v>0.0756365244071744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1250252291646671</v>
+        <v>0.1240657546915422</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>34143</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23517</v>
+        <v>23379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47092</v>
+        <v>48319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1156221616169051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07963618214249751</v>
+        <v>0.07916820323624678</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1594717598308516</v>
+        <v>0.1636248014965893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -5183,19 +5183,19 @@
         <v>22414</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15682</v>
+        <v>15278</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31933</v>
+        <v>31232</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08904196187668094</v>
+        <v>0.08904196187668091</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06229933179097157</v>
+        <v>0.06069394002785088</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1268559925162568</v>
+        <v>0.1240727835408999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -5204,19 +5204,19 @@
         <v>56558</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43849</v>
+        <v>42741</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73910</v>
+        <v>72927</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1033907434526341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08015798399160078</v>
+        <v>0.07813231363651382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1351123862411001</v>
+        <v>0.1333157946387467</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>103778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>85539</v>
+        <v>86116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123730</v>
+        <v>121250</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3514299540406597</v>
+        <v>0.3514299540406598</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2896671794023398</v>
+        <v>0.2916191905821788</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4189944663337266</v>
+        <v>0.4105972326361583</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -5254,19 +5254,19 @@
         <v>75835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>63647</v>
+        <v>64425</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>89422</v>
+        <v>89981</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3012602246735745</v>
+        <v>0.3012602246735746</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2528432546189023</v>
+        <v>0.2559323587549654</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3552360561968941</v>
+        <v>0.3574557079695665</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>200</v>
@@ -5275,19 +5275,19 @@
         <v>179613</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156579</v>
+        <v>158957</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>203184</v>
+        <v>203589</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3283433352389025</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2862360108190081</v>
+        <v>0.2905827451057351</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3714318699502564</v>
+        <v>0.3721726622399237</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>84754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66661</v>
+        <v>67285</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102905</v>
+        <v>101832</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2870079942665582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2257391448538243</v>
+        <v>0.2278509257252742</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.348472417775461</v>
+        <v>0.3448391489378952</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -5325,19 +5325,19 @@
         <v>75525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63448</v>
+        <v>62186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>90940</v>
+        <v>90353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3000300199632956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2520521650310616</v>
+        <v>0.2470365096031903</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3612638654690862</v>
+        <v>0.3589326472391006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -5346,19 +5346,19 @@
         <v>160279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139363</v>
+        <v>137269</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185440</v>
+        <v>181820</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2930003435791799</v>
+        <v>0.2930003435791798</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2547633616752705</v>
+        <v>0.2509364921949768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3389948293316218</v>
+        <v>0.3323776171903002</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>42885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>30072</v>
+        <v>28157</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>61723</v>
+        <v>60755</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1452233091568491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1018354736092707</v>
+        <v>0.09534822478314867</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2090178500829231</v>
+        <v>0.2057376852611623</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -5396,19 +5396,19 @@
         <v>54179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41339</v>
+        <v>43481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>67229</v>
+        <v>67735</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2152288798948193</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1642230125176574</v>
+        <v>0.1727312872478844</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2670730420492142</v>
+        <v>0.2690819911449888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>90</v>
@@ -5417,19 +5417,19 @@
         <v>97063</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79213</v>
+        <v>78277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>119739</v>
+        <v>120336</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1774377927910245</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1448053434284288</v>
+        <v>0.1430952942236464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.218889767005226</v>
+        <v>0.2199817177064486</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>46899</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34583</v>
+        <v>34970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60766</v>
+        <v>60164</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3396341522477062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2504433048443244</v>
+        <v>0.253242082869252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4400511680570646</v>
+        <v>0.4356899874786826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -5542,19 +5542,19 @@
         <v>31320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22852</v>
+        <v>22870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41893</v>
+        <v>41063</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2728848153982509</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1990999939975637</v>
+        <v>0.1992608890006461</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3650043555534093</v>
+        <v>0.3577736562133123</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>73</v>
@@ -5563,19 +5563,19 @@
         <v>78219</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>63007</v>
+        <v>64687</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94780</v>
+        <v>95513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3093366311490636</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2491752224216356</v>
+        <v>0.2558181906001452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3748277412950954</v>
+        <v>0.3777282483806039</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>15029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7942</v>
+        <v>8003</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26145</v>
+        <v>26036</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1088361397608911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05751602627143562</v>
+        <v>0.05795690520982682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1893362215660028</v>
+        <v>0.1885468221446961</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>23</v>
@@ -5613,19 +5613,19 @@
         <v>18735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12455</v>
+        <v>12012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27392</v>
+        <v>27546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1632372152797961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1085182053227117</v>
+        <v>0.1046615425585844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2386616307232213</v>
+        <v>0.2400024654382485</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -5634,19 +5634,19 @@
         <v>33764</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24188</v>
+        <v>23409</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47914</v>
+        <v>45902</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1335287855775863</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09565768193962672</v>
+        <v>0.09257638962705773</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1894860246815216</v>
+        <v>0.1815293013061789</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>40679</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30089</v>
+        <v>29179</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55875</v>
+        <v>53979</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2945900900065705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2178975092441064</v>
+        <v>0.2113055366993928</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4046308424656945</v>
+        <v>0.3908998422320237</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -5684,19 +5684,19 @@
         <v>39378</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30356</v>
+        <v>30336</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>49493</v>
+        <v>48537</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3430949641468772</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2644847669166927</v>
+        <v>0.2643067195768156</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4312223058175435</v>
+        <v>0.4228926819103475</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>91</v>
@@ -5705,19 +5705,19 @@
         <v>80058</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>65503</v>
+        <v>65713</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>96437</v>
+        <v>96831</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.3166064502734507</v>
+        <v>0.3166064502734508</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2590474169237681</v>
+        <v>0.2598783285303251</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3813826890821721</v>
+        <v>0.382940160794927</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>23958</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14307</v>
+        <v>15027</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>37419</v>
+        <v>38225</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1734973239924676</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1036078927547915</v>
+        <v>0.1088208981444721</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2709785365216356</v>
+        <v>0.2768150484627717</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -5755,19 +5755,19 @@
         <v>16139</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10134</v>
+        <v>10652</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23540</v>
+        <v>23735</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1406121436946839</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08829804025805535</v>
+        <v>0.09280482006954632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2050979319451606</v>
+        <v>0.2068002857720269</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5776,19 +5776,19 @@
         <v>40097</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29319</v>
+        <v>28239</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54917</v>
+        <v>54513</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1585707420827194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1159493687407388</v>
+        <v>0.1116791895752347</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2171797417376972</v>
+        <v>0.2155833633364459</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>11522</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5731</v>
+        <v>5207</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21151</v>
+        <v>19600</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08344229399236446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04150388351562357</v>
+        <v>0.03770774248504032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1531696473389277</v>
+        <v>0.1419358899374303</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -5826,19 +5826,19 @@
         <v>9202</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4447</v>
+        <v>5075</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15812</v>
+        <v>16903</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08017086148039174</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.038746413964389</v>
+        <v>0.04421981416528373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1377637460984096</v>
+        <v>0.147274347912746</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -5847,19 +5847,19 @@
         <v>20724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13072</v>
+        <v>12887</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30112</v>
+        <v>30888</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08195739091718002</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05169622859961477</v>
+        <v>0.05096469450045512</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1190837916850958</v>
+        <v>0.1221537381327224</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>80832</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63971</v>
+        <v>62859</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102125</v>
+        <v>100220</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1704350176584685</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1348851704209503</v>
+        <v>0.1325385616002</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2153336871587356</v>
+        <v>0.2113158764027964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -5972,19 +5972,19 @@
         <v>56952</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45052</v>
+        <v>45994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70663</v>
+        <v>71909</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1463680642702191</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1157859279123614</v>
+        <v>0.1182059256213533</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1816077647218861</v>
+        <v>0.1848098333718247</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -5993,19 +5993,19 @@
         <v>137783</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116235</v>
+        <v>115680</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161419</v>
+        <v>159035</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1595885788398047</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1346307587921003</v>
+        <v>0.1339872654717748</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.18696499886359</v>
+        <v>0.1842033945806409</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>49997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35330</v>
+        <v>36899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>66274</v>
+        <v>65675</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1054196091277795</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07449383031479609</v>
+        <v>0.07780246522931106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.139739227356709</v>
+        <v>0.1384779635374977</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>58</v>
@@ -6043,19 +6043,19 @@
         <v>45781</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>35035</v>
+        <v>34590</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58689</v>
+        <v>58276</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1176585015765073</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09004214782451227</v>
+        <v>0.08889675339177379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1508333021995967</v>
+        <v>0.1497717231305762</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>100</v>
@@ -6064,19 +6064,19 @@
         <v>95778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>77736</v>
+        <v>78440</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>116862</v>
+        <v>116577</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1109354048336933</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09003796848336265</v>
+        <v>0.0908536793957791</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1353568094841831</v>
+        <v>0.1350263699112715</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>163791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>139718</v>
+        <v>142689</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>186552</v>
+        <v>189399</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3453558868551724</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2945980994621538</v>
+        <v>0.3008623249427421</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3933494056041041</v>
+        <v>0.3993527020540493</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>173</v>
@@ -6114,19 +6114,19 @@
         <v>123176</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>106019</v>
+        <v>108958</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>139340</v>
+        <v>140763</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3165661597750964</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2724727648629752</v>
+        <v>0.2800251592293738</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.358110547321727</v>
+        <v>0.3617668218115551</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>317</v>
@@ -6135,19 +6135,19 @@
         <v>286966</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>258561</v>
+        <v>257510</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>317277</v>
+        <v>315408</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3323809993260954</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2994802639429266</v>
+        <v>0.2982629782827608</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.367488632550263</v>
+        <v>0.3653238389919525</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>115998</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96922</v>
+        <v>95902</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139032</v>
+        <v>138336</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2445832178712609</v>
+        <v>0.244583217871261</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2043620561371752</v>
+        <v>0.2022116595804684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2931519271952208</v>
+        <v>0.2916839086800895</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>120</v>
@@ -6185,19 +6185,19 @@
         <v>96661</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82226</v>
+        <v>79083</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>114103</v>
+        <v>112915</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2484231083879412</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2113228477960576</v>
+        <v>0.2032470793610291</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2932497836198512</v>
+        <v>0.290195341205605</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>214</v>
@@ -6206,19 +6206,19 @@
         <v>212659</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>186121</v>
+        <v>187498</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240237</v>
+        <v>240530</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2463137708368837</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2155762668125079</v>
+        <v>0.2171713165609304</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2782567813448051</v>
+        <v>0.2785956632609006</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>63649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46614</v>
+        <v>46821</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>85315</v>
+        <v>89816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1342062684873187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09828632070079514</v>
+        <v>0.09872384867514969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.179888634963627</v>
+        <v>0.1893788716507088</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -6256,19 +6256,19 @@
         <v>66530</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54416</v>
+        <v>53388</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83021</v>
+        <v>82086</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1709841659902363</v>
+        <v>0.1709841659902362</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1398514668287513</v>
+        <v>0.1372094482240199</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2133675272475268</v>
+        <v>0.2109647679227135</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>119</v>
@@ -6277,19 +6277,19 @@
         <v>130179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106662</v>
+        <v>109202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>157119</v>
+        <v>156428</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.150781246163523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1235421599982182</v>
+        <v>0.1264839558905276</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1819847798591672</v>
+        <v>0.1811839187636272</v>
       </c>
     </row>
     <row r="27">
